--- a/기능목록표-2팀.xlsx
+++ b/기능목록표-2팀.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFDDFE5-9F2E-4EB9-83C3-9DBF66758CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E7091-6BA1-4562-AAF1-20F14B619BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1464" windowWidth="18360" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
   <si>
     <t>GUI 기반의 성적처리 프로그램 기능 목록표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,27 +49,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 기능에 대해서 한 줄로 작성해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전에 입력된 주소가 맞는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 배달 목적지 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트에 담은 음식 외의 다른 음식 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 사용가능 쿠폰 장수 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 사용가능 쿠폰 장수 확인 </t>
+  </si>
+  <si>
+    <t>쿠폰 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠펀본호 입력 또는 기존에 저장된 쿠폰 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 금액 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 비용, 배달비용, 총 결재금액 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 사장님, 배달 기사님에게 요구사항 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 입력된 계좌, 신용/체크카드 또는 새로운 결재수단 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금영수증 발급번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금영수증 발급을 위한 핸드폰 번호 확인, 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금영수증 발급여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금영수증 발급여부 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매조건 확인 및 결재대행 서비스 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 확인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 버튼을 누르면 선택된 계좌 or 체크카드 or 신용카드로 자동 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(신용/체크카드) 스캔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라를 이용한 카드 스캔: 카드번호, 카드사, 유효기간(MM/YY)자동 인식,    CVC(카드 뒷면 3자리) 랜덤으로 배치된 텐키로 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(신용/체크카드) 직접입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-은행사 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 은행사 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-계좌 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 은행사 선택계좌번호 입력(-제외, '-'를 포함해 붙여넣으면 자동으로 '-'생략)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-계좌 인증(이체내역 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 누르면 해당 계좌로 1원 전송, 계좌 이체 내역에서 1원에 대한 4자리 문구 확인 및 입력,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-개인 신상 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통신사, 전화번호, 내국인 여부 선택 후 ARS 인증요청, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-ARS인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARS인증 후 확인 버튼 입력, ARS 인증 에러시 ARS재인증 버튼, ARS인증시 생일 6자리 입력, 등록완료 확인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 검색 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자(주문자)가 검색 창에 검색어를 직접 입력하여 키워드에 해당하는 카테고리 혹은 해당 이름을 가진 매장을 찾을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 검색어 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 사용자의 검색 기록을 바탕으로, 현재 사용자가 많이 검색하는 키워드를 실시간으로 보여준다.
+검색 횟수에 따라 순위를 부여하며, 순위 변동을 나타낸다.
+현재 순위 결과가 업데이트 된 시간을 함께 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 검색어 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 사용자가 검색한 검색어를 시간 순으로 나타낸다.
+기록은 개별/전체 삭제가 가능하다.
+직접 입력한 검색어 뿐만 아니라 인기 검색어 기능을 통해 확인한 검색어도 함께 기록된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 검색 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자에게 카테고리 별로 매장을 분류하여 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 검색어를 사용한 검색 혹은 카테고리 검색을 통해 제공된 결과에서,
+다양한 검색 필터를 통해 사용자가 원하는 매장을 간편하게 찾을 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 매장 홍보 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색된 결과에서 해당 분류나 이름의 매장이 신규 입점했을 경우,
+신규 입점된 매장은 상단에 별도로 표시되도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 매장 추천 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 설정한 주소를 바탕으로, 주변에 위치한 가맹점 정보를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로모션 배너 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 제휴 가맹점에서 제공하는 할인 등의 혜택이나 프로모션의 정보를 배너 형태로 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 이전에 주문한 내역과 현재 주문한 내역을 확인 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접입력: 카드번호 첫 8자리는 전통적인 텐키로 입력, 
+             뒷 8자리, 유효기간(MM/YY), CVC(카드 뒷면 3자리)는 랜덤으로. 배치된 텐키로 입력,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡페이 전자금융거래이용약관, 쿠팡페이 서비스 이용약관,
+개인정보 수집 이용 동의, 개인정보 제공 정보 동의에 대한 상세 내용 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 단계 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문단계가 주문 수락, 메뉴 준비,배달중 ,배달 완료의 4단계로 이루어져 실시간으로 변동되어 조회가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 시간 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원,가게와의 거리를 바탕으로 남은 시간을 계산하여 도착 예정 시간과 남은 시간을 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 단계가 변화 할때마다 휴대폰에 푸시알림이 온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 주문을 확인 하기전(1단계 주문 수락 이전) 주문취소 요청을 보낼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 세부사항 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 주소, 주문 일련번호, 가게이름, 주문한 메뉴이름, 주문한 메뉴의 가격, 결제수단을 확인 할수있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 정보 조회 스크롤링기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은시간 확인, 주문단계 조회, 배달원 정보가 쓰여저 있는 정보창을 아래에서 위로 스크롤 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원의 위치 실시간 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 모바일 동적 지도를 제공한다. 지도상에서 실시간으로 업데이트되는 배달원의 위치를 확인 할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결된 배달원 의 배달수단(자전거,오토바이,승용차)을 확인 할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원 전화 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원 정보조회란의 오른쪽에 "전화하기" 버튼을 누르면 전화API가 실행되어 전화번호가 찍힌 다이얼이 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회창에서 "주문 내역" 창으로 X버튼을 이용해 이동할수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 지원</t>
+  </si>
+  <si>
+    <t>GUI 제공</t>
+  </si>
+  <si>
+    <t>정보 관리를 통합적으로 볼 수 있는 GUI 제공</t>
+  </si>
+  <si>
+    <t>배달 주소를 종합적으로 관리할 수 있는 GUI 제공</t>
+  </si>
+  <si>
+    <t>배달 주소를 집, 회사 등으로 분할하여 관리 가능</t>
+  </si>
+  <si>
+    <t>자신이 즐겨찾기한 음식점의 정보 제공</t>
+  </si>
+  <si>
+    <t>보유한 할인쿠폰의 관리 제공</t>
+  </si>
+  <si>
+    <t>환경 설정</t>
+  </si>
+  <si>
+    <t>결제 수단 관리 제공</t>
+  </si>
+  <si>
+    <t>결졔 수단의 보안 번호를 숨기는 기능 제공</t>
+  </si>
+  <si>
+    <t>FAQ 조회 기능 제공</t>
+  </si>
+  <si>
+    <t>설정에 대한 GUI 제공</t>
+  </si>
+  <si>
+    <t>배달 현황 알림 ON/OFF</t>
+  </si>
+  <si>
+    <t>쿠폰과 혜택 정보 알림 ON/OFF</t>
+  </si>
+  <si>
+    <t>언어 설정</t>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+  </si>
+  <si>
+    <t>앱에 대한 공지사항 조회 기능</t>
+  </si>
+  <si>
+    <t>개인정보 처리방침과 약관에 대한 조회</t>
+  </si>
+  <si>
+    <t>배달이 완료되면, 자동으로 "주문내역" 창으로 나가짐과 동시에 리뷰를 권유하는 글과 리뷰버튼이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 파트너 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>F009</t>
+  </si>
+  <si>
+    <t>F010</t>
+  </si>
+  <si>
+    <t>F011</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>F014</t>
+  </si>
+  <si>
+    <t>F015</t>
+  </si>
+  <si>
+    <t>F016</t>
+  </si>
+  <si>
+    <t>F017</t>
+  </si>
+  <si>
+    <t>F018</t>
+  </si>
+  <si>
+    <t>F019</t>
+  </si>
+  <si>
+    <t>F020</t>
+  </si>
+  <si>
+    <t>F021</t>
+  </si>
+  <si>
+    <t>F022</t>
+  </si>
+  <si>
+    <t>F023</t>
+  </si>
+  <si>
+    <t>F024</t>
+  </si>
+  <si>
+    <t>F025</t>
+  </si>
+  <si>
+    <t>F026</t>
+  </si>
+  <si>
+    <t>F027</t>
+  </si>
+  <si>
+    <t>F028</t>
+  </si>
+  <si>
+    <t>F029</t>
+  </si>
+  <si>
+    <t>F030</t>
+  </si>
+  <si>
+    <t>F031</t>
+  </si>
+  <si>
+    <t>F032</t>
+  </si>
+  <si>
+    <t>F033</t>
+  </si>
+  <si>
+    <t>F034</t>
+  </si>
+  <si>
+    <t>F035</t>
+  </si>
+  <si>
+    <t>F036</t>
+  </si>
+  <si>
+    <t>F037</t>
+  </si>
+  <si>
+    <t>F038</t>
+  </si>
+  <si>
+    <t>F039</t>
+  </si>
+  <si>
+    <t>F040</t>
+  </si>
+  <si>
+    <t>F041</t>
+  </si>
+  <si>
+    <t>F042</t>
+  </si>
+  <si>
+    <t>F043</t>
+  </si>
+  <si>
+    <t>F044</t>
+  </si>
+  <si>
+    <t>F045</t>
+  </si>
+  <si>
+    <t>F046</t>
+  </si>
+  <si>
+    <t>F047</t>
+  </si>
+  <si>
+    <t>F048</t>
+  </si>
+  <si>
+    <t>F049</t>
+  </si>
+  <si>
+    <t>F050</t>
+  </si>
+  <si>
+    <t>F051</t>
+  </si>
+  <si>
+    <t>F052</t>
+  </si>
+  <si>
+    <t>F053</t>
+  </si>
+  <si>
+    <t>F054</t>
+  </si>
+  <si>
+    <t>F055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -150,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -161,14 +690,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -507,27 +1045,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="B45:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="116" customWidth="1"/>
     <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
@@ -541,7 +1079,7 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
     </row>
@@ -563,20 +1101,918 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="6">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="6">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="6">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="6">
+        <v>45</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="6">
+        <v>47</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="6">
+        <v>49</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="6">
+        <v>50</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="6">
+        <v>51</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="6">
+        <v>52</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="6">
+        <v>53</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="6">
+        <v>54</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="6">
+        <v>55</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/기능목록표-2팀.xlsx
+++ b/기능목록표-2팀.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E7091-6BA1-4562-AAF1-20F14B619BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8E7A0-9E3D-424F-8D2F-C5F539BD2F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
   <si>
     <t>GUI 기반의 성적처리 프로그램 기능 목록표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배달 파트너 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F003</t>
   </si>
   <si>
@@ -598,7 +594,36 @@
     <t>F054</t>
   </si>
   <si>
-    <t>F055</t>
+    <t>유저 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달주소 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점 즐겨찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인쿠폰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 기능 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 방침 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -693,9 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -707,6 +729,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1045,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="B45:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1059,13 +1084,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
@@ -1101,918 +1126,921 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
         <v>28</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
         <v>29</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
         <v>30</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="B37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
         <v>34</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="B39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
         <v>35</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
         <v>36</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
         <v>37</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
         <v>39</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
         <v>41</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
         <v>43</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
         <v>44</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
         <v>45</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="B50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
         <v>46</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
-        <v>31</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="B51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
         <v>47</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="B52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
         <v>48</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="B53" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="5">
         <v>49</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
         <v>50</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="B55" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="5">
         <v>51</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
-        <v>33</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B56" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
         <v>52</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="B57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
         <v>53</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="6">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
         <v>54</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A41" s="6">
-        <v>36</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="6">
-        <v>37</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
-        <v>39</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
-        <v>40</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
-        <v>41</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
-        <v>43</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="6">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
-        <v>45</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="6">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="6">
-        <v>47</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="6">
-        <v>48</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="6">
-        <v>49</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="6">
-        <v>50</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="6">
-        <v>51</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="6">
-        <v>52</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="6">
-        <v>53</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="C59" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
-        <v>54</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="6">
-        <v>55</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/기능목록표-2팀.xlsx
+++ b/기능목록표-2팀.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8E7A0-9E3D-424F-8D2F-C5F539BD2F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E16612D-8F3B-41B7-B836-6E0F40BB5EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2604" yWindow="0" windowWidth="19080" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
   <si>
-    <t>GUI 기반의 성적처리 프로그램 기능 목록표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,6 +619,10 @@
   </si>
   <si>
     <t>개인정보 방침 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 주문, 배달 시스템 (주제시스템: 쿠팡 잇츠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1085,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>44287</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -1110,19 +1110,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1130,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1164,16 +1164,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1181,16 +1181,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1198,16 +1198,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1215,16 +1215,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1232,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1249,16 +1249,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1266,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1283,16 +1283,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1300,16 +1300,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1317,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1334,16 +1334,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1351,16 +1351,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1368,16 +1368,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1385,16 +1385,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1402,16 +1402,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1419,16 +1419,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1436,16 +1436,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1453,16 +1453,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1470,16 +1470,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1487,16 +1487,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1504,16 +1504,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1521,16 +1521,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1538,16 +1538,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1555,16 +1555,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1572,16 +1572,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1589,16 +1589,16 @@
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1606,16 +1606,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1623,16 +1623,16 @@
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1640,16 +1640,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -1657,16 +1657,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -1674,16 +1674,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1691,16 +1691,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1708,16 +1708,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1725,16 +1725,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1742,16 +1742,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1759,16 +1759,16 @@
         <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1776,16 +1776,16 @@
         <v>39</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1793,16 +1793,16 @@
         <v>40</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1810,16 +1810,16 @@
         <v>41</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1827,16 +1827,16 @@
         <v>42</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1844,16 +1844,16 @@
         <v>43</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1861,16 +1861,16 @@
         <v>44</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1878,16 +1878,16 @@
         <v>45</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1895,16 +1895,16 @@
         <v>46</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1912,16 +1912,16 @@
         <v>47</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1929,16 +1929,16 @@
         <v>48</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="D53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1946,16 +1946,16 @@
         <v>49</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -1963,16 +1963,16 @@
         <v>50</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1980,16 +1980,16 @@
         <v>51</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -1997,16 +1997,16 @@
         <v>52</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2014,16 +2014,16 @@
         <v>53</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2031,16 +2031,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
